--- a/Excel RPG/Game/Computation.xlsx
+++ b/Excel RPG/Game/Computation.xlsx
@@ -13,14 +13,16 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="INITACTIVE" comment="Initialise game flag">Flags!$B$15</definedName>
     <definedName name="INITVALID" comment="If initialisation is valid">Flags!$B$16</definedName>
     <definedName name="NORESTART" comment="Stop game from restarting">Flags!$B$12</definedName>
+    <definedName name="PLAYERNAME">Data!$A$2</definedName>
     <definedName name="STARTACTIVE" comment="Boolean value for if game is active">Flags!$B$9</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="10" iterateDelta="0.1"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="1" iterateDelta="0.1"/>
 </workbook>
 </file>
 
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>[CHECKLINK]</t>
   </si>
@@ -102,6 +104,9 @@
   </si>
   <si>
     <t>VALID?</t>
+  </si>
+  <si>
+    <t>[PLAYERNAME]</t>
   </si>
 </sst>
 </file>
@@ -272,8 +277,8 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="A2" t="str">
-            <v>b</v>
+          <cell r="A2">
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
@@ -294,6 +299,37 @@
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="DIAL3ACTIVE" refersTo="='Sheet1'!$C$27"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="27">
+          <cell r="C27" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -588,7 +624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -617,7 +655,7 @@
       </c>
       <c r="B9" s="4" t="b">
         <f ca="1">IFERROR(IF(AND(OR([1]!STARTINPUT,STARTACTIVE),NORESTART),TRUE,FALSE),FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +692,7 @@
       </c>
       <c r="B16" s="3" t="b">
         <f ca="1">IFERROR(IF(OR(INITACTIVE,INITVALID=FALSE),IF(NORESTART,FALSE,TRUE),TRUE),FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -665,12 +703,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f ca="1">IFERROR( IF([2]!DIAL3ACTIVE, [2]Sheet1!$C$52,IF(AND(NORESTART,PLAYERNAME&lt;&gt;""),PLAYERNAME,"")), "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Excel RPG/Game/Computation.xlsx
+++ b/Excel RPG/Game/Computation.xlsx
@@ -276,11 +276,6 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-        </row>
         <row r="5">
           <cell r="B5" t="b">
             <v>0</v>
@@ -297,8 +292,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -317,6 +312,11 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="14">
+          <cell r="C14" t="str">
+            <v/>
+          </cell>
+        </row>
         <row r="27">
           <cell r="C27" t="b">
             <v>0</v>
@@ -328,8 +328,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -625,7 +625,7 @@
   <dimension ref="A4:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel RPG/Game/Computation.xlsx
+++ b/Excel RPG/Game/Computation.xlsx
@@ -312,11 +312,6 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="14">
-          <cell r="C14" t="str">
-            <v/>
-          </cell>
-        </row>
         <row r="27">
           <cell r="C27" t="b">
             <v>0</v>
@@ -328,8 +323,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/Excel RPG/Game/Computation.xlsx
+++ b/Excel RPG/Game/Computation.xlsx
@@ -22,7 +22,7 @@
     <definedName name="PLAYERNAME">Data!$A$2</definedName>
     <definedName name="STARTACTIVE" comment="Boolean value for if game is active">Flags!$B$9</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="1" iterateDelta="0.1"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="10" iterateDelta="0.1"/>
 </workbook>
 </file>
 
@@ -276,6 +276,11 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="B5" t="b">
             <v>0</v>
@@ -292,8 +297,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -312,6 +317,11 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="14">
+          <cell r="C14" t="str">
+            <v/>
+          </cell>
+        </row>
         <row r="27">
           <cell r="C27" t="b">
             <v>0</v>
@@ -323,8 +333,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
